--- a/data/01_raw/2023_ground_truth_counts.xlsx
+++ b/data/01_raw/2023_ground_truth_counts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawest\OneDrive - University of Georgia\Documents\UGA Grad School\Masters Research\PTs Drone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/dawest_uga_edu/Documents/Documents/UGA Grad School/Masters Research/PTs Drone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB10389E-1E38-42AC-BD75-6DAE21E95AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA7B3B8-0205-42DC-9FC6-46E91AAE057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="8" activeTab="8" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="9" activeTab="9" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
   </bookViews>
   <sheets>
     <sheet name="7-27-23" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="8-18-23" sheetId="7" r:id="rId7"/>
     <sheet name="8-21-23" sheetId="8" r:id="rId8"/>
     <sheet name="8-24-23" sheetId="9" r:id="rId9"/>
+    <sheet name="8-28-23" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="13">
   <si>
     <t>Plot</t>
   </si>
@@ -1062,6 +1063,715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D46B11-767A-489E-8D54-D89AFE4819EB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="2">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B4" s="2">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1093</v>
+      </c>
+      <c r="B6" s="2">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1095</v>
+      </c>
+      <c r="B7" s="2">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1098</v>
+      </c>
+      <c r="B8" s="2">
+        <v>191</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1142</v>
+      </c>
+      <c r="B10" s="2">
+        <v>207</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1147</v>
+      </c>
+      <c r="B11" s="2">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1150</v>
+      </c>
+      <c r="B12" s="2">
+        <v>202</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1156</v>
+      </c>
+      <c r="B13" s="2">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1261</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1263</v>
+      </c>
+      <c r="B15" s="2">
+        <v>202</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1334</v>
+      </c>
+      <c r="B16" s="2">
+        <v>191</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1371</v>
+      </c>
+      <c r="B17" s="2">
+        <v>207</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1376</v>
+      </c>
+      <c r="B18" s="2">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B20" s="2">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1459</v>
+      </c>
+      <c r="B21" s="2">
+        <v>128</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1489</v>
+      </c>
+      <c r="B23" s="2">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1493</v>
+      </c>
+      <c r="B24" s="2">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1513</v>
+      </c>
+      <c r="B25" s="2">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1528</v>
+      </c>
+      <c r="B26" s="2">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1529</v>
+      </c>
+      <c r="B27" s="2">
+        <v>202</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1564</v>
+      </c>
+      <c r="B29" s="2">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1606</v>
+      </c>
+      <c r="B30" s="2">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1642</v>
+      </c>
+      <c r="B31" s="2">
+        <v>207</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1646</v>
+      </c>
+      <c r="B32" s="2">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1682</v>
+      </c>
+      <c r="B34" s="2">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1688</v>
+      </c>
+      <c r="B35" s="2">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1698</v>
+      </c>
+      <c r="B36" s="2">
+        <v>191</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1738</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="F38"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44F401D-6AED-436F-A0B9-E4B3B95A5FFC}">
   <sheetPr>
@@ -3195,7 +3905,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
@@ -4614,8 +5324,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6033,9 +6743,9 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6747,8 +7457,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094AA1C2EC61FF14F854275BACE97F8DB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87e5dad36149ef9875866ee6c07b51c0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xmlns:ns4="5c7bd4c1-27c7-4857-97c5-5e05b5492f18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b71da207586abf436948836a167800a" ns1:_="" ns3:_="" ns4:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094AA1C2EC61FF14F854275BACE97F8DB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ed8f1bbf957748ffc396fce8d8e9def">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xmlns:ns4="5c7bd4c1-27c7-4857-97c5-5e05b5492f18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ada7cf4f373b2b21e20b3c9d8b6ea551" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="a7d62638-28e2-4f67-9303-2f0acda7ac7b"/>
     <xsd:import namespace="5c7bd4c1-27c7-4857-97c5-5e05b5492f18"/>
@@ -6774,6 +7503,8 @@
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6853,6 +7584,16 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="24" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="25" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -6992,26 +7733,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3314082-2A5E-4500-BC8F-959EA6E2438F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7019,5 +7742,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}"/>
 </file>
--- a/data/01_raw/2023_ground_truth_counts.xlsx
+++ b/data/01_raw/2023_ground_truth_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/dawest_uga_edu/Documents/Documents/UGA Grad School/Masters Research/PTs Drone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawest\OneDrive - University of Georgia\Documents\UGA Grad School\Masters Research\PTs Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA7B3B8-0205-42DC-9FC6-46E91AAE057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{498252B1-763C-4C8E-A72F-8C23CED42BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="9" activeTab="9" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="11" activeTab="11" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
   </bookViews>
   <sheets>
     <sheet name="7-27-23" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="8-21-23" sheetId="8" r:id="rId8"/>
     <sheet name="8-24-23" sheetId="9" r:id="rId9"/>
     <sheet name="8-28-23" sheetId="10" r:id="rId10"/>
+    <sheet name="9-1-23" sheetId="11" r:id="rId11"/>
+    <sheet name="9-5-23" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="13">
   <si>
     <t>Plot</t>
   </si>
@@ -149,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -160,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1762,6 +1767,1418 @@
     </row>
     <row r="38" spans="1:6">
       <c r="F38"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871F9791-F576-4C67-8010-BDBE929CF2D4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B2" s="2">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1055</v>
+      </c>
+      <c r="B4" s="2">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1057</v>
+      </c>
+      <c r="B5" s="2">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B6" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B8" s="2">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B9" s="2">
+        <v>204</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B10" s="2">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1135</v>
+      </c>
+      <c r="B12" s="2">
+        <v>162</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1237</v>
+      </c>
+      <c r="B13" s="2">
+        <v>210</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1301</v>
+      </c>
+      <c r="B14" s="2">
+        <v>204</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1313</v>
+      </c>
+      <c r="B15" s="2">
+        <v>104</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1349</v>
+      </c>
+      <c r="B16" s="2">
+        <v>158</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1417</v>
+      </c>
+      <c r="B18" s="2">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1419</v>
+      </c>
+      <c r="B19" s="2">
+        <v>210</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1437</v>
+      </c>
+      <c r="B20" s="2">
+        <v>147</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1444</v>
+      </c>
+      <c r="B21" s="2">
+        <v>162</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1464</v>
+      </c>
+      <c r="B22" s="2">
+        <v>169</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1469</v>
+      </c>
+      <c r="B23" s="2">
+        <v>134</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1509</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1544</v>
+      </c>
+      <c r="B27" s="2">
+        <v>169</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1550</v>
+      </c>
+      <c r="B28" s="2">
+        <v>158</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1551</v>
+      </c>
+      <c r="B29" s="2">
+        <v>104</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1563</v>
+      </c>
+      <c r="B30" s="2">
+        <v>162</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1571</v>
+      </c>
+      <c r="B31" s="2">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B32" s="2">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1621</v>
+      </c>
+      <c r="B33" s="2">
+        <v>204</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1641</v>
+      </c>
+      <c r="B34" s="2">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1711</v>
+      </c>
+      <c r="B36" s="2">
+        <v>147</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1748</v>
+      </c>
+      <c r="B37" s="2">
+        <v>210</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F1322-7A8E-41E1-9C0D-8367F4BDCBF6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1131</v>
+      </c>
+      <c r="B3" s="2">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1133</v>
+      </c>
+      <c r="B5" s="2">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="2">
+        <v>230</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1147</v>
+      </c>
+      <c r="B7" s="2">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1164</v>
+      </c>
+      <c r="B8" s="2">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1249</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1252</v>
+      </c>
+      <c r="B12" s="2">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1256</v>
+      </c>
+      <c r="B13" s="2">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1261</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1269</v>
+      </c>
+      <c r="B15" s="2">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1354</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1362</v>
+      </c>
+      <c r="B17" s="2">
+        <v>230</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1379</v>
+      </c>
+      <c r="B18" s="2">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1391</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B21" s="2">
+        <v>152</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1423</v>
+      </c>
+      <c r="B22" s="2">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1477</v>
+      </c>
+      <c r="B23" s="2">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1492</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1534</v>
+      </c>
+      <c r="B26" s="2">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1577</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1595</v>
+      </c>
+      <c r="B29" s="2">
+        <v>230</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1611</v>
+      </c>
+      <c r="B30" s="2">
+        <v>152</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1653</v>
+      </c>
+      <c r="B31" s="2">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1681</v>
+      </c>
+      <c r="B34" s="2">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1685</v>
+      </c>
+      <c r="B35" s="2">
+        <v>141</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1712</v>
+      </c>
+      <c r="B36" s="2">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1738</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
@@ -6744,7 +8161,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -7457,16 +8874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7475,7 +8882,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094AA1C2EC61FF14F854275BACE97F8DB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ed8f1bbf957748ffc396fce8d8e9def">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xmlns:ns4="5c7bd4c1-27c7-4857-97c5-5e05b5492f18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ada7cf4f373b2b21e20b3c9d8b6ea551" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7733,14 +9140,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7C944F-C3D4-460D-AE36-4D3A5F868739}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7C944F-C3D4-460D-AE36-4D3A5F868739}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
 </file>
--- a/data/01_raw/2023_ground_truth_counts.xlsx
+++ b/data/01_raw/2023_ground_truth_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawest\OneDrive - University of Georgia\Documents\UGA Grad School\Masters Research\PTs Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{498252B1-763C-4C8E-A72F-8C23CED42BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF084FD4-37A5-49B1-835D-BCE0E114046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="11" activeTab="11" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="15" activeTab="15" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
   </bookViews>
   <sheets>
     <sheet name="7-27-23" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,10 @@
     <sheet name="8-28-23" sheetId="10" r:id="rId10"/>
     <sheet name="9-1-23" sheetId="11" r:id="rId11"/>
     <sheet name="9-5-23" sheetId="12" r:id="rId12"/>
+    <sheet name="9-7-23" sheetId="13" r:id="rId13"/>
+    <sheet name="9-11-23" sheetId="14" r:id="rId14"/>
+    <sheet name="9-14-23" sheetId="15" r:id="rId15"/>
+    <sheet name="9-18-23" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
   <si>
     <t>Plot</t>
   </si>
@@ -82,10 +86,13 @@
     <t>Counted Pink Flowers b/c flew drone on 8/1/23</t>
   </si>
   <si>
+    <t>Right Row; Bronze Wilt</t>
+  </si>
+  <si>
     <t>Bronze Wilt</t>
   </si>
   <si>
-    <t>Right Row; Bronze Wilt</t>
+    <t>High Stand Count</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,327 +1140,325 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>1010</v>
+        <v>1493</v>
       </c>
       <c r="B3" s="2">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
-        <v>1074</v>
+        <v>1528</v>
       </c>
       <c r="B4" s="2">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>1147</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>1093</v>
+        <v>1261</v>
       </c>
       <c r="B6" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>1095</v>
+        <v>1738</v>
       </c>
       <c r="B7" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>1098</v>
+        <v>1010</v>
       </c>
       <c r="B8" s="2">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>1132</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>1489</v>
+      </c>
+      <c r="B9" s="2">
+        <v>58</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>1142</v>
+        <v>1606</v>
       </c>
       <c r="B10" s="2">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="B11" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>1150</v>
+        <v>1376</v>
       </c>
       <c r="B12" s="2">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>1156</v>
+        <v>1564</v>
       </c>
       <c r="B13" s="2">
         <v>62</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
-        <v>1261</v>
+        <v>1093</v>
       </c>
       <c r="B14" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
-        <v>1263</v>
+        <v>1513</v>
       </c>
       <c r="B15" s="2">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
-        <v>1334</v>
+        <v>1688</v>
       </c>
       <c r="B16" s="2">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2">
-        <v>1371</v>
+        <v>1074</v>
       </c>
       <c r="B17" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2">
-        <v>1376</v>
+        <v>1406</v>
       </c>
       <c r="B18" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
-        <v>1382</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>1646</v>
+      </c>
+      <c r="B19" s="2">
+        <v>74</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
-        <v>1406</v>
+        <v>1095</v>
       </c>
       <c r="B20" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -1477,124 +1482,126 @@
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
-        <v>1485</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>1682</v>
+      </c>
+      <c r="B22" s="2">
+        <v>128</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
-        <v>1489</v>
+        <v>1098</v>
       </c>
       <c r="B23" s="2">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
-        <v>1493</v>
+        <v>1334</v>
       </c>
       <c r="B24" s="2">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
-        <v>1513</v>
+        <v>1698</v>
       </c>
       <c r="B25" s="2">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
-        <v>1528</v>
+        <v>1150</v>
       </c>
       <c r="B26" s="2">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
-        <v>1529</v>
+        <v>1263</v>
       </c>
       <c r="B27" s="2">
         <v>202</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
-        <v>1536</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>1529</v>
+      </c>
+      <c r="B28" s="2">
+        <v>202</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
@@ -1603,37 +1610,37 @@
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
-        <v>1564</v>
+        <v>1142</v>
       </c>
       <c r="B29" s="2">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
-        <v>1606</v>
+        <v>1371</v>
       </c>
       <c r="B30" s="2">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -1657,111 +1664,111 @@
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
-        <v>1646</v>
-      </c>
-      <c r="B32" s="2">
-        <v>74</v>
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
-        <v>1676</v>
+        <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
-        <v>1682</v>
-      </c>
-      <c r="B34" s="2">
-        <v>128</v>
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
-        <v>1688</v>
-      </c>
-      <c r="B35" s="2">
-        <v>66</v>
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
-        <v>1698</v>
-      </c>
-      <c r="B36" s="2">
-        <v>191</v>
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
-        <v>1738</v>
-      </c>
-      <c r="B37" s="2">
-        <v>40</v>
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
       <c r="D37" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -1770,7 +1777,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
-    <sortCondition ref="A2:A38"/>
+    <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
@@ -1779,6 +1786,2828 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871F9791-F576-4C67-8010-BDBE929CF2D4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1051</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1509</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B5" s="2">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1313</v>
+      </c>
+      <c r="B6" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1551</v>
+      </c>
+      <c r="B7" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1057</v>
+      </c>
+      <c r="B8" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1417</v>
+      </c>
+      <c r="B9" s="2">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1571</v>
+      </c>
+      <c r="B10" s="2">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1055</v>
+      </c>
+      <c r="B11" s="2">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1469</v>
+      </c>
+      <c r="B12" s="2">
+        <v>134</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1641</v>
+      </c>
+      <c r="B13" s="2">
+        <v>134</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B14" s="2">
+        <v>147</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1437</v>
+      </c>
+      <c r="B15" s="2">
+        <v>147</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1711</v>
+      </c>
+      <c r="B16" s="2">
+        <v>147</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B17" s="2">
+        <v>158</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1349</v>
+      </c>
+      <c r="B18" s="2">
+        <v>158</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1550</v>
+      </c>
+      <c r="B19" s="2">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1135</v>
+      </c>
+      <c r="B20" s="2">
+        <v>162</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1444</v>
+      </c>
+      <c r="B21" s="2">
+        <v>162</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1563</v>
+      </c>
+      <c r="B22" s="2">
+        <v>162</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B23" s="2">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1464</v>
+      </c>
+      <c r="B24" s="2">
+        <v>169</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1544</v>
+      </c>
+      <c r="B25" s="2">
+        <v>169</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B26" s="2">
+        <v>204</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1301</v>
+      </c>
+      <c r="B27" s="2">
+        <v>204</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1621</v>
+      </c>
+      <c r="B28" s="2">
+        <v>204</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1237</v>
+      </c>
+      <c r="B29" s="2">
+        <v>210</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1419</v>
+      </c>
+      <c r="B30" s="2">
+        <v>210</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1748</v>
+      </c>
+      <c r="B31" s="2">
+        <v>210</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="B2:B38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F1322-7A8E-41E1-9C0D-8367F4BDCBF6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1240</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1423</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1653</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1256</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1354</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1147</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1261</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1738</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1249</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1391</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1577</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1492</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1681</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1133</v>
+      </c>
+      <c r="B17" s="2">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1269</v>
+      </c>
+      <c r="B18" s="2">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1534</v>
+      </c>
+      <c r="B19" s="2">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1164</v>
+      </c>
+      <c r="B20" s="2">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1379</v>
+      </c>
+      <c r="B21" s="2">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1712</v>
+      </c>
+      <c r="B22" s="2">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1252</v>
+      </c>
+      <c r="B23" s="2">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1477</v>
+      </c>
+      <c r="B24" s="2">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1685</v>
+      </c>
+      <c r="B25" s="2">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1131</v>
+      </c>
+      <c r="B26" s="2">
+        <v>152</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B27" s="2">
+        <v>152</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1611</v>
+      </c>
+      <c r="B28" s="2">
+        <v>152</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1139</v>
+      </c>
+      <c r="B29" s="2">
+        <v>230</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1362</v>
+      </c>
+      <c r="B30" s="2">
+        <v>230</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1595</v>
+      </c>
+      <c r="B31" s="2">
+        <v>230</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="B2:B38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA6C7F-B8CB-4EDB-A64D-DA389C4F6037}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1516</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1591</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B5" s="2">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1279</v>
+      </c>
+      <c r="B6" s="2">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1615</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B8" s="2">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1364</v>
+      </c>
+      <c r="B9" s="2">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1616</v>
+      </c>
+      <c r="B10" s="2">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B11" s="2">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1308</v>
+      </c>
+      <c r="B12" s="2">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1586</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1165</v>
+      </c>
+      <c r="B14" s="2">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1344</v>
+      </c>
+      <c r="B15" s="2">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1567</v>
+      </c>
+      <c r="B16" s="2">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B17" s="2">
+        <v>124</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1380</v>
+      </c>
+      <c r="B18" s="2">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1717</v>
+      </c>
+      <c r="B19" s="2">
+        <v>124</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B20" s="2">
+        <v>131</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1428</v>
+      </c>
+      <c r="B21" s="2">
+        <v>131</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1776</v>
+      </c>
+      <c r="B22" s="2">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B23" s="2">
+        <v>135</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1471</v>
+      </c>
+      <c r="B24" s="2">
+        <v>135</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1552</v>
+      </c>
+      <c r="B25" s="2">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1225</v>
+      </c>
+      <c r="B26" s="2">
+        <v>188</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1456</v>
+      </c>
+      <c r="B27" s="2">
+        <v>188</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1521</v>
+      </c>
+      <c r="B28" s="2">
+        <v>188</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B29" s="2">
+        <v>231</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1335</v>
+      </c>
+      <c r="B30" s="2">
+        <v>231</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1647</v>
+      </c>
+      <c r="B31" s="2">
+        <v>231</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="B2:B38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B98ACF-4034-4E5D-9A58-FF3F21BCCD7E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B2" s="2">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>1305</v>
+      </c>
+      <c r="B3" s="2">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>1689</v>
+      </c>
+      <c r="B4" s="2">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>1250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>1497</v>
+      </c>
+      <c r="B6" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>1762</v>
+      </c>
+      <c r="B7" s="2">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B8" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>1393</v>
+      </c>
+      <c r="B9" s="2">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>1664</v>
+      </c>
+      <c r="B10" s="2">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>1185</v>
+      </c>
+      <c r="B11" s="2">
+        <v>115</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>1328</v>
+      </c>
+      <c r="B12" s="2">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>1624</v>
+      </c>
+      <c r="B13" s="2">
+        <v>115</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>1155</v>
+      </c>
+      <c r="B14" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>1312</v>
+      </c>
+      <c r="B15" s="2">
+        <v>165</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>1651</v>
+      </c>
+      <c r="B16" s="2">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>1231</v>
+      </c>
+      <c r="B17" s="2">
+        <v>170</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>1377</v>
+      </c>
+      <c r="B18" s="2">
+        <v>170</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>1635</v>
+      </c>
+      <c r="B19" s="2">
+        <v>170</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="2">
+        <v>1220</v>
+      </c>
+      <c r="B20" s="2">
+        <v>176</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>1266</v>
+      </c>
+      <c r="B21" s="2">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="2">
+        <v>1609</v>
+      </c>
+      <c r="B22" s="2">
+        <v>176</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2">
+        <v>1159</v>
+      </c>
+      <c r="B23" s="2">
+        <v>180</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="2">
+        <v>1409</v>
+      </c>
+      <c r="B24" s="2">
+        <v>180</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="2">
+        <v>1769</v>
+      </c>
+      <c r="B25" s="2">
+        <v>180</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="2">
+        <v>1118</v>
+      </c>
+      <c r="B26" s="2">
+        <v>190</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2">
+        <v>1357</v>
+      </c>
+      <c r="B27" s="2">
+        <v>190</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="2">
+        <v>1702</v>
+      </c>
+      <c r="B28" s="2">
+        <v>190</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B29" s="2">
+        <v>243</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="2">
+        <v>1396</v>
+      </c>
+      <c r="B30" s="2">
+        <v>243</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="2">
+        <v>1603</v>
+      </c>
+      <c r="B31" s="2">
+        <v>243</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="B2:B38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B02292-70EE-4E5D-B5DB-A327429F4A86}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1820,93 +4649,93 @@
         <v>4</v>
       </c>
       <c r="G1" s="5">
-        <v>45170</v>
+        <v>45183</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
-        <v>1007</v>
+        <v>1254</v>
       </c>
       <c r="B2" s="2">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>1051</v>
+        <v>1440</v>
       </c>
       <c r="B3" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
-        <v>1055</v>
+        <v>1661</v>
       </c>
       <c r="B4" s="2">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
-        <v>1057</v>
+        <v>1093</v>
       </c>
       <c r="B5" s="2">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>1069</v>
+        <v>1513</v>
       </c>
       <c r="B6" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>8</v>
@@ -1915,52 +4744,52 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>1688</v>
+      </c>
+      <c r="B7" s="2">
+        <v>66</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>1085</v>
+        <v>1126</v>
       </c>
       <c r="B8" s="2">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>1092</v>
+        <v>1480</v>
       </c>
       <c r="B9" s="2">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>15</v>
@@ -1969,106 +4798,106 @@
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>1119</v>
+        <v>1556</v>
       </c>
       <c r="B10" s="2">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>1132</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>1185</v>
+      </c>
+      <c r="B11" s="2">
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>1135</v>
+        <v>1328</v>
       </c>
       <c r="B12" s="2">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>1237</v>
+        <v>1624</v>
       </c>
       <c r="B13" s="2">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
-        <v>1301</v>
+        <v>1170</v>
       </c>
       <c r="B14" s="2">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
-        <v>1313</v>
+        <v>1346</v>
       </c>
       <c r="B15" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>9</v>
@@ -2077,232 +4906,232 @@
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
-        <v>1349</v>
+        <v>1732</v>
       </c>
       <c r="B16" s="2">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2">
-        <v>1382</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>1095</v>
+      </c>
+      <c r="B17" s="2">
+        <v>128</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2">
-        <v>1417</v>
+        <v>1459</v>
       </c>
       <c r="B18" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
-        <v>1419</v>
+        <v>1682</v>
       </c>
       <c r="B19" s="2">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
-        <v>1437</v>
+        <v>1207</v>
       </c>
       <c r="B20" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="2">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="B21" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
-        <v>1464</v>
+        <v>1569</v>
       </c>
       <c r="B22" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
-        <v>1469</v>
+        <v>1199</v>
       </c>
       <c r="B23" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
-        <v>1485</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>1363</v>
+      </c>
+      <c r="B24" s="2">
+        <v>161</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
-        <v>1509</v>
+        <v>1666</v>
       </c>
       <c r="B25" s="2">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
-        <v>1536</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>1220</v>
+      </c>
+      <c r="B26" s="2">
+        <v>176</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
-        <v>1544</v>
+        <v>1266</v>
       </c>
       <c r="B27" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="B28" s="2">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
@@ -2311,88 +5140,88 @@
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
-        <v>1551</v>
+        <v>1159</v>
       </c>
       <c r="B29" s="2">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
-        <v>1563</v>
+        <v>1409</v>
       </c>
       <c r="B30" s="2">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2">
-        <v>1571</v>
+        <v>1769</v>
       </c>
       <c r="B31" s="2">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
-        <v>1612</v>
-      </c>
-      <c r="B32" s="2">
-        <v>14</v>
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
-        <v>1621</v>
-      </c>
-      <c r="B33" s="2">
-        <v>204</v>
+        <v>1382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -2401,96 +5230,96 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
-        <v>1641</v>
-      </c>
-      <c r="B34" s="2">
-        <v>134</v>
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
-        <v>1676</v>
+        <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
-        <v>1711</v>
-      </c>
-      <c r="B36" s="2">
-        <v>147</v>
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
-        <v>1748</v>
-      </c>
-      <c r="B37" s="2">
-        <v>210</v>
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
       <c r="D37" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
-    <sortCondition ref="A2:A38"/>
+    <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F1322-7A8E-41E1-9C0D-8367F4BDCBF6}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6F0A5D-8ADE-4682-85D0-EB2B0B95638C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2525,89 +5354,87 @@
         <v>4</v>
       </c>
       <c r="G1" s="5">
-        <v>45174</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>1017</v>
+      </c>
+      <c r="B2" s="2">
+        <v>239</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>1131</v>
-      </c>
-      <c r="B3" s="2">
-        <v>152</v>
+        <v>1078</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
-        <v>1132</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>1091</v>
+      </c>
+      <c r="B4" s="2">
+        <v>64</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>1139</v>
-      </c>
-      <c r="B6" s="2">
-        <v>230</v>
+        <v>1132</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2616,160 +5443,162 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B7" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="B8" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B9" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>1240</v>
+        <v>1213</v>
       </c>
       <c r="B10" s="2">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="B11" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="B12" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="B13" s="2">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
-        <v>1261</v>
+        <v>1287</v>
       </c>
       <c r="B14" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
-        <v>1269</v>
+        <v>1317</v>
       </c>
       <c r="B15" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -2778,34 +5607,34 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
-        <v>1354</v>
+        <v>1323</v>
       </c>
       <c r="B16" s="2">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2">
-        <v>1362</v>
+        <v>1326</v>
       </c>
       <c r="B17" s="2">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2814,16 +5643,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2">
-        <v>1379</v>
+        <v>1341</v>
       </c>
       <c r="B18" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -2832,58 +5661,62 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
-        <v>1382</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>1367</v>
+      </c>
+      <c r="B19" s="2">
+        <v>49</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="B20" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
         <v>9</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="2">
-        <v>1403</v>
-      </c>
-      <c r="B21" s="2">
-        <v>152</v>
+        <v>1382</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>7</v>
@@ -2892,34 +5725,34 @@
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
-        <v>1423</v>
+        <v>1388</v>
       </c>
       <c r="B22" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B23" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>11</v>
@@ -2937,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
@@ -2946,34 +5779,34 @@
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
-        <v>1492</v>
+        <v>1502</v>
       </c>
       <c r="B25" s="2">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
-        <v>1534</v>
-      </c>
-      <c r="B26" s="2">
-        <v>80</v>
+        <v>1536</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
@@ -2982,10 +5815,10 @@
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
-        <v>1536</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>1554</v>
+      </c>
+      <c r="B27" s="2">
+        <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -2994,132 +5827,134 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
-        <v>1577</v>
+        <v>1631</v>
       </c>
       <c r="B28" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
-        <v>1595</v>
+        <v>1644</v>
       </c>
       <c r="B29" s="2">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>13</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
-        <v>1611</v>
+        <v>1645</v>
       </c>
       <c r="B30" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2">
-        <v>1653</v>
-      </c>
-      <c r="B31" s="2">
-        <v>25</v>
+        <v>1676</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
-        <v>1663</v>
+        <v>1697</v>
       </c>
       <c r="B32" s="2">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
-        <v>1676</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>1700</v>
+      </c>
+      <c r="B33" s="2">
+        <v>144</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
-        <v>1681</v>
+        <v>1740</v>
       </c>
       <c r="B34" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
         <v>11</v>
@@ -3128,52 +5963,52 @@
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
-        <v>1685</v>
+        <v>1747</v>
       </c>
       <c r="B35" s="2">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
-        <v>1712</v>
+        <v>1760</v>
       </c>
       <c r="B36" s="2">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
-        <v>1738</v>
+        <v>1775</v>
       </c>
       <c r="B37" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
       <c r="D37" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
         <v>8</v>
@@ -6741,7 +9576,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -8161,8 +10996,8 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8201,295 +11036,293 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
-        <v>1030</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="2">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>1036</v>
+        <v>1432</v>
       </c>
       <c r="B3" s="2">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
-        <v>1071</v>
+        <v>1541</v>
       </c>
       <c r="B4" s="2">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>1195</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>1079</v>
+        <v>1492</v>
       </c>
       <c r="B6" s="2">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>1083</v>
+        <v>1681</v>
       </c>
       <c r="B7" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>1090</v>
+        <v>1187</v>
       </c>
       <c r="B8" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>1100</v>
+        <v>1341</v>
       </c>
       <c r="B9" s="2">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>1132</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>1644</v>
+      </c>
+      <c r="B10" s="2">
+        <v>72</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>1187</v>
+        <v>1083</v>
       </c>
       <c r="B11" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
         <v>11</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>1195</v>
+        <v>1294</v>
       </c>
       <c r="B12" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>1210</v>
+        <v>1650</v>
       </c>
       <c r="B13" s="2">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
-        <v>1294</v>
+        <v>1036</v>
       </c>
       <c r="B14" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
-        <v>1299</v>
+        <v>1471</v>
       </c>
       <c r="B15" s="2">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
-        <v>1341</v>
+        <v>1552</v>
       </c>
       <c r="B16" s="2">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
         <v>8</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2">
-        <v>1382</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>1210</v>
+      </c>
+      <c r="B17" s="2">
+        <v>157</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -8513,180 +11346,180 @@
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
-        <v>1432</v>
+        <v>1677</v>
       </c>
       <c r="B19" s="2">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
-        <v>1458</v>
+        <v>1090</v>
       </c>
       <c r="B20" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="2">
-        <v>1471</v>
+        <v>1501</v>
       </c>
       <c r="B21" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
-        <v>1485</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>1539</v>
+      </c>
+      <c r="B22" s="2">
+        <v>167</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
-        <v>1492</v>
+        <v>1030</v>
       </c>
       <c r="B23" s="2">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="B24" s="2">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
-        <v>1511</v>
+        <v>1659</v>
       </c>
       <c r="B25" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
-        <v>1536</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>1079</v>
+      </c>
+      <c r="B26" s="2">
+        <v>235</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="2">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
-        <v>1539</v>
+        <v>1511</v>
       </c>
       <c r="B27" s="2">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
-        <v>1541</v>
+        <v>1780</v>
       </c>
       <c r="B28" s="2">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
@@ -8695,125 +11528,127 @@
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
-        <v>1552</v>
+        <v>1071</v>
       </c>
       <c r="B29" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="E29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
-        <v>1644</v>
+        <v>1299</v>
       </c>
       <c r="B30" s="2">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2">
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2">
-        <v>1650</v>
+        <v>1737</v>
       </c>
       <c r="B31" s="2">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
-        <v>1659</v>
-      </c>
-      <c r="B32" s="2">
-        <v>209</v>
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
-        <v>1676</v>
+        <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
-        <v>1677</v>
-      </c>
-      <c r="B34" s="2">
-        <v>157</v>
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2">
-        <v>7</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
-        <v>1681</v>
-      </c>
-      <c r="B35" s="2">
-        <v>50</v>
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
         <v>7</v>
@@ -8825,48 +11660,48 @@
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
-        <v>1737</v>
-      </c>
-      <c r="B36" s="2">
-        <v>237</v>
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>19</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
-        <v>1780</v>
-      </c>
-      <c r="B37" s="2">
-        <v>235</v>
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
       <c r="D37" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="F38"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
-    <sortCondition ref="A2:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
@@ -8883,6 +11718,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094AA1C2EC61FF14F854275BACE97F8DB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ed8f1bbf957748ffc396fce8d8e9def">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xmlns:ns4="5c7bd4c1-27c7-4857-97c5-5e05b5492f18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ada7cf4f373b2b21e20b3c9d8b6ea551" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9140,24 +11985,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7C944F-C3D4-460D-AE36-4D3A5F868739}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}"/>
 </file>
--- a/data/01_raw/2023_ground_truth_counts.xlsx
+++ b/data/01_raw/2023_ground_truth_counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawest\OneDrive - University of Georgia\Documents\UGA Grad School\Masters Research\PTs Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF084FD4-37A5-49B1-835D-BCE0E114046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{3F07DEB8-66B0-43E8-8A26-FA47C34F4A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D2C5359F-AA81-4303-8C46-8B1347D04B2D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="15" activeTab="15" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="4" activeTab="16" xr2:uid="{8F9DACAF-C196-4FF0-BBE7-23C747EA27F6}"/>
   </bookViews>
   <sheets>
     <sheet name="7-27-23" sheetId="1" r:id="rId1"/>
@@ -29,34 +29,21 @@
     <sheet name="9-11-23" sheetId="14" r:id="rId14"/>
     <sheet name="9-14-23" sheetId="15" r:id="rId15"/>
     <sheet name="9-18-23" sheetId="16" r:id="rId16"/>
+    <sheet name="9-21-23" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="14">
   <si>
     <t>Plot</t>
-  </si>
-  <si>
-    <t>Entry</t>
   </si>
   <si>
     <t>Block</t>
@@ -65,25 +52,28 @@
     <t># of White Flowers</t>
   </si>
   <si>
+    <t># of Plants</t>
+  </si>
+  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Counted Right Row</t>
+  </si>
+  <si>
+    <t>Counted Pink Flowers b/c flew drone on 8/1/23</t>
+  </si>
+  <si>
+    <t>Right Row</t>
+  </si>
+  <si>
+    <t>Entry</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
-    <t>Counted Right Row</t>
-  </si>
-  <si>
     <t>PD</t>
-  </si>
-  <si>
-    <t># of Plants</t>
-  </si>
-  <si>
-    <t>Right Row</t>
-  </si>
-  <si>
-    <t>Counted Pink Flowers b/c flew drone on 8/1/23</t>
   </si>
   <si>
     <t>Right Row; Bronze Wilt</t>
@@ -99,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,10 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,7 +163,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,35 +493,35 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
         <v>45134</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1110</v>
       </c>
@@ -539,7 +536,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1381</v>
       </c>
@@ -554,7 +551,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1703</v>
       </c>
@@ -569,7 +566,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1116</v>
       </c>
@@ -584,7 +581,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1364</v>
       </c>
@@ -599,7 +596,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1616</v>
       </c>
@@ -614,7 +611,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1018</v>
       </c>
@@ -629,7 +626,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1470</v>
       </c>
@@ -644,7 +641,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1764</v>
       </c>
@@ -659,7 +656,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1115</v>
       </c>
@@ -674,7 +671,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1483</v>
       </c>
@@ -689,7 +686,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1691</v>
       </c>
@@ -704,7 +701,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1059</v>
       </c>
@@ -719,7 +716,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1453</v>
       </c>
@@ -734,7 +731,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1773</v>
       </c>
@@ -749,7 +746,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1173</v>
       </c>
@@ -764,7 +761,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1304</v>
       </c>
@@ -779,7 +776,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1533</v>
       </c>
@@ -794,7 +791,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1118</v>
       </c>
@@ -809,7 +806,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1357</v>
       </c>
@@ -824,7 +821,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1702</v>
       </c>
@@ -839,7 +836,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1237</v>
       </c>
@@ -854,7 +851,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1419</v>
       </c>
@@ -869,7 +866,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1748</v>
       </c>
@@ -884,7 +881,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1128</v>
       </c>
@@ -899,7 +896,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1352</v>
       </c>
@@ -914,7 +911,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1608</v>
       </c>
@@ -929,7 +926,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1020</v>
       </c>
@@ -944,7 +941,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1300</v>
       </c>
@@ -959,7 +956,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1657</v>
       </c>
@@ -974,12 +971,12 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -989,12 +986,12 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -1004,12 +1001,12 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -1018,15 +1015,15 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1036,12 +1033,12 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -1051,12 +1048,12 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -1067,7 +1064,7 @@
       <c r="E37" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+  <sortState ref="A2:F37">
     <sortCondition ref="B2:B37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1086,41 +1083,41 @@
       <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45166</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1006</v>
       </c>
@@ -1138,7 +1135,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1493</v>
       </c>
@@ -1156,7 +1153,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1528</v>
       </c>
@@ -1174,7 +1171,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1147</v>
       </c>
@@ -1192,7 +1189,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1261</v>
       </c>
@@ -1210,7 +1207,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1738</v>
       </c>
@@ -1228,7 +1225,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1010</v>
       </c>
@@ -1246,7 +1243,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1489</v>
       </c>
@@ -1264,7 +1261,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1606</v>
       </c>
@@ -1282,7 +1279,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1156</v>
       </c>
@@ -1300,7 +1297,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1376</v>
       </c>
@@ -1318,7 +1315,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1564</v>
       </c>
@@ -1336,7 +1333,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1093</v>
       </c>
@@ -1354,7 +1351,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1513</v>
       </c>
@@ -1372,7 +1369,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1688</v>
       </c>
@@ -1390,7 +1387,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1074</v>
       </c>
@@ -1408,7 +1405,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1406</v>
       </c>
@@ -1426,7 +1423,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1646</v>
       </c>
@@ -1444,7 +1441,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1095</v>
       </c>
@@ -1462,7 +1459,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1459</v>
       </c>
@@ -1480,7 +1477,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1682</v>
       </c>
@@ -1498,7 +1495,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1098</v>
       </c>
@@ -1516,7 +1513,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1334</v>
       </c>
@@ -1534,7 +1531,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1698</v>
       </c>
@@ -1552,7 +1549,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1150</v>
       </c>
@@ -1570,7 +1567,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1263</v>
       </c>
@@ -1587,10 +1584,10 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1529</v>
       </c>
@@ -1608,7 +1605,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1142</v>
       </c>
@@ -1626,7 +1623,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1371</v>
       </c>
@@ -1644,7 +1641,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1642</v>
       </c>
@@ -1662,12 +1659,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1680,12 +1677,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -1698,12 +1695,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -1715,15 +1712,15 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1736,12 +1733,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -1754,12 +1751,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -1772,11 +1769,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,48 +1786,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="7">
         <v>45170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1051</v>
       </c>
@@ -1848,7 +1845,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1509</v>
       </c>
@@ -1866,7 +1863,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1612</v>
       </c>
@@ -1884,7 +1881,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1069</v>
       </c>
@@ -1902,7 +1899,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1313</v>
       </c>
@@ -1920,7 +1917,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1551</v>
       </c>
@@ -1938,7 +1935,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1057</v>
       </c>
@@ -1956,7 +1953,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1417</v>
       </c>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1571</v>
       </c>
@@ -1992,7 +1989,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1055</v>
       </c>
@@ -2010,7 +2007,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1469</v>
       </c>
@@ -2028,7 +2025,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1641</v>
       </c>
@@ -2046,7 +2043,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1085</v>
       </c>
@@ -2064,7 +2061,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1437</v>
       </c>
@@ -2082,7 +2079,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1711</v>
       </c>
@@ -2100,7 +2097,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1119</v>
       </c>
@@ -2118,7 +2115,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1349</v>
       </c>
@@ -2136,7 +2133,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1550</v>
       </c>
@@ -2154,7 +2151,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1135</v>
       </c>
@@ -2172,7 +2169,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1444</v>
       </c>
@@ -2190,7 +2187,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1563</v>
       </c>
@@ -2208,7 +2205,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1007</v>
       </c>
@@ -2226,7 +2223,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1464</v>
       </c>
@@ -2244,7 +2241,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1544</v>
       </c>
@@ -2262,7 +2259,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1092</v>
       </c>
@@ -2280,7 +2277,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1301</v>
       </c>
@@ -2298,7 +2295,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1621</v>
       </c>
@@ -2316,7 +2313,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1237</v>
       </c>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1419</v>
       </c>
@@ -2352,7 +2349,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1748</v>
       </c>
@@ -2370,12 +2367,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2388,12 +2385,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -2406,12 +2403,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -2423,15 +2420,15 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -2444,12 +2441,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -2462,12 +2459,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -2480,8 +2477,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2494,48 +2494,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="7">
         <v>45174</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1240</v>
       </c>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1423</v>
       </c>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1653</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1256</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1354</v>
       </c>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1663</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1147</v>
       </c>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1261</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1738</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1249</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1391</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1577</v>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1195</v>
       </c>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1492</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1681</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1133</v>
       </c>
@@ -2822,10 +2822,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1269</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1534</v>
       </c>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1164</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1379</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1712</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1252</v>
       </c>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1477</v>
       </c>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1685</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1131</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1403</v>
       </c>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1611</v>
       </c>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1139</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1362</v>
       </c>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1595</v>
       </c>
@@ -3077,12 +3077,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3095,12 +3095,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -3113,12 +3113,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -3130,15 +3130,15 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -3169,12 +3169,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -3187,8 +3187,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3201,48 +3204,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="7">
         <v>45176</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1003</v>
       </c>
@@ -3260,7 +3263,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1516</v>
       </c>
@@ -3278,7 +3281,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1591</v>
       </c>
@@ -3296,7 +3299,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1204</v>
       </c>
@@ -3314,7 +3317,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1279</v>
       </c>
@@ -3332,7 +3335,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1615</v>
       </c>
@@ -3350,7 +3353,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1116</v>
       </c>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1364</v>
       </c>
@@ -3386,7 +3389,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1616</v>
       </c>
@@ -3404,7 +3407,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1065</v>
       </c>
@@ -3422,7 +3425,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1308</v>
       </c>
@@ -3440,7 +3443,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1586</v>
       </c>
@@ -3458,7 +3461,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1165</v>
       </c>
@@ -3476,7 +3479,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1344</v>
       </c>
@@ -3494,7 +3497,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1567</v>
       </c>
@@ -3512,7 +3515,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1063</v>
       </c>
@@ -3530,7 +3533,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1380</v>
       </c>
@@ -3548,7 +3551,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1717</v>
       </c>
@@ -3566,7 +3569,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1014</v>
       </c>
@@ -3584,7 +3587,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1428</v>
       </c>
@@ -3602,7 +3605,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1776</v>
       </c>
@@ -3620,7 +3623,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1036</v>
       </c>
@@ -3638,7 +3641,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1471</v>
       </c>
@@ -3656,7 +3659,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1552</v>
       </c>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1225</v>
       </c>
@@ -3692,7 +3695,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1456</v>
       </c>
@@ -3710,7 +3713,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1521</v>
       </c>
@@ -3728,7 +3731,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1111</v>
       </c>
@@ -3746,7 +3749,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1335</v>
       </c>
@@ -3764,7 +3767,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1647</v>
       </c>
@@ -3782,12 +3785,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3800,12 +3803,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -3818,12 +3821,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -3835,15 +3838,15 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3856,12 +3859,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -3874,12 +3877,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -3892,8 +3895,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3906,48 +3912,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="7">
         <v>45180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1073</v>
       </c>
@@ -3965,7 +3971,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1305</v>
       </c>
@@ -3983,7 +3989,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1689</v>
       </c>
@@ -4001,7 +4007,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1250</v>
       </c>
@@ -4019,7 +4025,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1497</v>
       </c>
@@ -4037,7 +4043,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1762</v>
       </c>
@@ -4055,7 +4061,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1026</v>
       </c>
@@ -4073,7 +4079,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1393</v>
       </c>
@@ -4091,7 +4097,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1664</v>
       </c>
@@ -4109,7 +4115,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1185</v>
       </c>
@@ -4127,7 +4133,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1328</v>
       </c>
@@ -4145,7 +4151,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1624</v>
       </c>
@@ -4163,7 +4169,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1155</v>
       </c>
@@ -4181,7 +4187,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1312</v>
       </c>
@@ -4199,7 +4205,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1651</v>
       </c>
@@ -4217,7 +4223,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1231</v>
       </c>
@@ -4235,7 +4241,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1377</v>
       </c>
@@ -4253,7 +4259,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1635</v>
       </c>
@@ -4271,7 +4277,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1220</v>
       </c>
@@ -4289,7 +4295,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1266</v>
       </c>
@@ -4307,7 +4313,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1609</v>
       </c>
@@ -4325,7 +4331,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1159</v>
       </c>
@@ -4343,7 +4349,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1409</v>
       </c>
@@ -4361,7 +4367,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1769</v>
       </c>
@@ -4379,7 +4385,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1118</v>
       </c>
@@ -4397,7 +4403,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1357</v>
       </c>
@@ -4415,7 +4421,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1702</v>
       </c>
@@ -4433,7 +4439,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1174</v>
       </c>
@@ -4451,7 +4457,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1396</v>
       </c>
@@ -4469,7 +4475,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1603</v>
       </c>
@@ -4487,12 +4493,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -4505,12 +4511,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -4523,12 +4529,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -4540,15 +4546,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -4561,12 +4567,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -4579,12 +4585,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -4597,8 +4603,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4611,48 +4620,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="7">
         <v>45183</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1254</v>
       </c>
@@ -4670,7 +4679,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1440</v>
       </c>
@@ -4688,7 +4697,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1661</v>
       </c>
@@ -4706,7 +4715,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1093</v>
       </c>
@@ -4724,7 +4733,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1513</v>
       </c>
@@ -4742,7 +4751,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1688</v>
       </c>
@@ -4760,7 +4769,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1126</v>
       </c>
@@ -4778,7 +4787,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1480</v>
       </c>
@@ -4796,7 +4805,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1556</v>
       </c>
@@ -4814,7 +4823,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1185</v>
       </c>
@@ -4832,7 +4841,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1328</v>
       </c>
@@ -4850,7 +4859,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1624</v>
       </c>
@@ -4868,7 +4877,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1170</v>
       </c>
@@ -4886,7 +4895,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1346</v>
       </c>
@@ -4904,7 +4913,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1732</v>
       </c>
@@ -4922,7 +4931,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1095</v>
       </c>
@@ -4940,7 +4949,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1459</v>
       </c>
@@ -4958,7 +4967,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1682</v>
       </c>
@@ -4976,7 +4985,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1207</v>
       </c>
@@ -4994,7 +5003,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1435</v>
       </c>
@@ -5012,7 +5021,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1569</v>
       </c>
@@ -5030,7 +5039,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1199</v>
       </c>
@@ -5048,7 +5057,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1363</v>
       </c>
@@ -5066,7 +5075,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1666</v>
       </c>
@@ -5084,7 +5093,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1220</v>
       </c>
@@ -5102,7 +5111,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1266</v>
       </c>
@@ -5120,7 +5129,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1609</v>
       </c>
@@ -5138,7 +5147,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1159</v>
       </c>
@@ -5156,7 +5165,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1409</v>
       </c>
@@ -5174,7 +5183,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1769</v>
       </c>
@@ -5192,12 +5201,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -5210,12 +5219,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -5228,12 +5237,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -5245,15 +5254,15 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -5266,12 +5275,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -5284,12 +5293,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -5302,8 +5311,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5316,53 +5328,769 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1109</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1388</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1554</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1153</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1370</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1645</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1143</v>
+      </c>
+      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1367</v>
+      </c>
+      <c r="B9" s="2">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1740</v>
+      </c>
+      <c r="B10" s="2">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1091</v>
+      </c>
+      <c r="B11" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1287</v>
+      </c>
+      <c r="B12" s="2">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1775</v>
+      </c>
+      <c r="B13" s="2">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1187</v>
+      </c>
+      <c r="B14" s="2">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1341</v>
+      </c>
+      <c r="B15" s="2">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1644</v>
+      </c>
+      <c r="B16" s="2">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1234</v>
+      </c>
+      <c r="B17" s="2">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1317</v>
+      </c>
+      <c r="B18" s="2">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1631</v>
+      </c>
+      <c r="B19" s="2">
+        <v>139</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1235</v>
+      </c>
+      <c r="B20" s="2">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1478</v>
+      </c>
+      <c r="B21" s="2">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1700</v>
+      </c>
+      <c r="B22" s="2">
+        <v>144</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1213</v>
+      </c>
+      <c r="B23" s="2">
+        <v>163</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1502</v>
+      </c>
+      <c r="B24" s="2">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1697</v>
+      </c>
+      <c r="B25" s="2">
+        <v>163</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1242</v>
+      </c>
+      <c r="B26" s="2">
+        <v>208</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1326</v>
+      </c>
+      <c r="B27" s="2">
+        <v>208</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1747</v>
+      </c>
+      <c r="B28" s="2">
+        <v>208</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B29" s="2">
+        <v>239</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1323</v>
+      </c>
+      <c r="B30" s="2">
+        <v>239</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1760</v>
+      </c>
+      <c r="B31" s="2">
+        <v>239</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1078</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1485</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1536</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G38">
+    <sortCondition ref="B2:B38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7316E-3453-44D5-B3EA-5704E960EE4D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G1" s="7">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="2">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5371,16 +6099,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>1029</v>
+      </c>
+      <c r="B3" s="2">
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -5389,52 +6117,52 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1091</v>
+        <v>1058</v>
       </c>
       <c r="B4" s="2">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1109</v>
+        <v>1064</v>
       </c>
       <c r="B5" s="2">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1132</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -5443,16 +6171,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1143</v>
+        <v>1097</v>
       </c>
       <c r="B7" s="2">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -5461,72 +6189,70 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1153</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1187</v>
+        <v>1112</v>
       </c>
       <c r="B9" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1213</v>
-      </c>
-      <c r="B10" s="2">
-        <v>163</v>
+        <v>1132</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1234</v>
+        <v>1170</v>
       </c>
       <c r="B11" s="2">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -5535,16 +6261,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B12" s="2">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -5557,48 +6283,48 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="B13" s="2">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1300</v>
+      </c>
+      <c r="B14" s="2">
+        <v>260</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="2">
-        <v>1287</v>
-      </c>
-      <c r="B14" s="2">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
       <c r="E14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1317</v>
+        <v>1332</v>
       </c>
       <c r="B15" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -5607,34 +6333,34 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1323</v>
+        <v>1340</v>
       </c>
       <c r="B16" s="2">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="B17" s="2">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -5643,16 +6369,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1341</v>
-      </c>
-      <c r="B18" s="2">
-        <v>72</v>
+        <v>1382</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -5661,74 +6387,70 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1367</v>
+        <v>1408</v>
       </c>
       <c r="B19" s="2">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B20" s="2">
+        <v>228</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1425</v>
+      </c>
+      <c r="B21" s="2">
+        <v>154</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="2">
-        <v>1370</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="2">
-        <v>1382</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>7</v>
-      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1388</v>
+        <v>1432</v>
       </c>
       <c r="B22" s="2">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -5741,12 +6463,12 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1478</v>
+        <v>1442</v>
       </c>
       <c r="B23" s="2">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -5755,16 +6477,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1485</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -5773,16 +6495,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="B25" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -5791,34 +6513,34 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <v>1533</v>
+      </c>
+      <c r="B26" s="2">
+        <v>228</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>1536</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="2">
-        <v>1554</v>
-      </c>
-      <c r="B27" s="2">
-        <v>41</v>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -5827,16 +6549,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1631</v>
+        <v>1541</v>
       </c>
       <c r="B28" s="2">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -5845,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1644</v>
+        <v>1565</v>
       </c>
       <c r="B29" s="2">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -5863,18 +6585,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>1645</v>
+        <v>1588</v>
       </c>
       <c r="B30" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -5883,72 +6603,72 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <v>1589</v>
+      </c>
+      <c r="B31" s="2">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1657</v>
+      </c>
+      <c r="B32" s="2">
+        <v>260</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>1676</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
         <v>12</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="2">
-        <v>1697</v>
-      </c>
-      <c r="B32" s="2">
-        <v>163</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="2">
-        <v>1700</v>
-      </c>
-      <c r="B33" s="2">
-        <v>144</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="B34" s="2">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -5957,34 +6677,34 @@
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>1747</v>
+        <v>1733</v>
       </c>
       <c r="B35" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>1760</v>
+        <v>1743</v>
       </c>
       <c r="B36" s="2">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -5993,16 +6713,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="B37" s="2">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -6011,12 +6731,15 @@
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6036,39 +6759,39 @@
       <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1176</v>
       </c>
@@ -6086,7 +6809,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1278</v>
       </c>
@@ -6104,7 +6827,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1770</v>
       </c>
@@ -6122,7 +6845,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1146</v>
       </c>
@@ -6140,7 +6863,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1276</v>
       </c>
@@ -6158,7 +6881,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1708</v>
       </c>
@@ -6176,7 +6899,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1249</v>
       </c>
@@ -6194,7 +6917,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1391</v>
       </c>
@@ -6212,7 +6935,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1577</v>
       </c>
@@ -6230,7 +6953,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1250</v>
       </c>
@@ -6248,7 +6971,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1497</v>
       </c>
@@ -6266,7 +6989,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1762</v>
       </c>
@@ -6284,7 +7007,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1160</v>
       </c>
@@ -6302,7 +7025,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1431</v>
       </c>
@@ -6320,7 +7043,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1617</v>
       </c>
@@ -6338,7 +7061,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1118</v>
       </c>
@@ -6356,7 +7079,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1349</v>
       </c>
@@ -6374,7 +7097,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1550</v>
       </c>
@@ -6392,7 +7115,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1114</v>
       </c>
@@ -6410,7 +7133,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1467</v>
       </c>
@@ -6428,7 +7151,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1531</v>
       </c>
@@ -6446,7 +7169,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1220</v>
       </c>
@@ -6464,7 +7187,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1266</v>
       </c>
@@ -6482,7 +7205,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1609</v>
       </c>
@@ -6500,7 +7223,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1043</v>
       </c>
@@ -6518,7 +7241,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1350</v>
       </c>
@@ -6536,7 +7259,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1605</v>
       </c>
@@ -6554,7 +7277,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1111</v>
       </c>
@@ -6572,7 +7295,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1335</v>
       </c>
@@ -6590,7 +7313,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1647</v>
       </c>
@@ -6608,12 +7331,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -6626,12 +7349,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -6644,12 +7367,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -6661,15 +7384,15 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -6682,12 +7405,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -6700,12 +7423,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -6718,16 +7441,16 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="30">
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="F39"/>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
+  <sortState ref="A2:G39">
     <sortCondition ref="B2:B39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6747,40 +7470,40 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1040</v>
       </c>
@@ -6798,7 +7521,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1336</v>
       </c>
@@ -6816,7 +7539,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1637</v>
       </c>
@@ -6834,7 +7557,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1084</v>
       </c>
@@ -6852,7 +7575,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1378</v>
       </c>
@@ -6870,7 +7593,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1693</v>
       </c>
@@ -6888,7 +7611,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1113</v>
       </c>
@@ -6906,7 +7629,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1373</v>
       </c>
@@ -6924,7 +7647,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1726</v>
       </c>
@@ -6942,7 +7665,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1157</v>
       </c>
@@ -6960,7 +7683,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1324</v>
       </c>
@@ -6978,7 +7701,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1751</v>
       </c>
@@ -6996,7 +7719,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1226</v>
       </c>
@@ -7014,7 +7737,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1476</v>
       </c>
@@ -7032,7 +7755,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1745</v>
       </c>
@@ -7050,7 +7773,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1097</v>
       </c>
@@ -7068,7 +7791,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1425</v>
       </c>
@@ -7086,7 +7809,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1565</v>
       </c>
@@ -7104,7 +7827,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1199</v>
       </c>
@@ -7122,7 +7845,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1363</v>
       </c>
@@ -7140,7 +7863,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1666</v>
       </c>
@@ -7158,7 +7881,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1145</v>
       </c>
@@ -7176,7 +7899,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1461</v>
       </c>
@@ -7194,7 +7917,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1619</v>
       </c>
@@ -7212,7 +7935,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1144</v>
       </c>
@@ -7230,7 +7953,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1345</v>
       </c>
@@ -7248,7 +7971,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1592</v>
       </c>
@@ -7266,7 +7989,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1182</v>
       </c>
@@ -7284,7 +8007,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1375</v>
       </c>
@@ -7302,7 +8025,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1746</v>
       </c>
@@ -7320,12 +8043,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -7338,12 +8061,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -7356,12 +8079,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -7373,15 +8096,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -7394,12 +8117,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -7412,12 +8135,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -7430,11 +8153,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7454,41 +8177,41 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1084</v>
       </c>
@@ -7506,7 +8229,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1378</v>
       </c>
@@ -7524,7 +8247,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1693</v>
       </c>
@@ -7542,7 +8265,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1016</v>
       </c>
@@ -7560,7 +8283,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1402</v>
       </c>
@@ -7578,7 +8301,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1731</v>
       </c>
@@ -7596,7 +8319,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1156</v>
       </c>
@@ -7614,7 +8337,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1376</v>
       </c>
@@ -7632,7 +8355,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1564</v>
       </c>
@@ -7650,7 +8373,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1244</v>
       </c>
@@ -7668,7 +8391,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1270</v>
       </c>
@@ -7686,7 +8409,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1767</v>
       </c>
@@ -7704,7 +8427,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1059</v>
       </c>
@@ -7722,7 +8445,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1453</v>
       </c>
@@ -7740,7 +8463,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1773</v>
       </c>
@@ -7758,7 +8481,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1135</v>
       </c>
@@ -7776,7 +8499,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1444</v>
       </c>
@@ -7794,7 +8517,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1563</v>
       </c>
@@ -7812,7 +8535,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1007</v>
       </c>
@@ -7830,7 +8553,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1464</v>
       </c>
@@ -7848,7 +8571,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1544</v>
       </c>
@@ -7866,7 +8589,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1179</v>
       </c>
@@ -7884,7 +8607,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1385</v>
       </c>
@@ -7902,7 +8625,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1579</v>
       </c>
@@ -7920,7 +8643,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1111</v>
       </c>
@@ -7938,7 +8661,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1335</v>
       </c>
@@ -7956,7 +8679,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1647</v>
       </c>
@@ -7974,7 +8697,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1079</v>
       </c>
@@ -7992,7 +8715,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1511</v>
       </c>
@@ -8010,7 +8733,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1780</v>
       </c>
@@ -8028,12 +8751,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -8046,12 +8769,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -8064,12 +8787,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -8081,15 +8804,15 @@
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -8102,12 +8825,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -8120,12 +8843,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -8138,11 +8861,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8161,41 +8884,41 @@
       <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1240</v>
       </c>
@@ -8213,7 +8936,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1423</v>
       </c>
@@ -8231,7 +8954,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1653</v>
       </c>
@@ -8249,7 +8972,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1110</v>
       </c>
@@ -8267,7 +8990,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1381</v>
       </c>
@@ -8285,7 +9008,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1703</v>
       </c>
@@ -8303,7 +9026,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1255</v>
       </c>
@@ -8321,7 +9044,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1413</v>
       </c>
@@ -8339,7 +9062,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1716</v>
       </c>
@@ -8357,7 +9080,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1120</v>
       </c>
@@ -8375,7 +9098,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1273</v>
       </c>
@@ -8393,7 +9116,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1649</v>
       </c>
@@ -8411,7 +9134,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1226</v>
       </c>
@@ -8429,7 +9152,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1476</v>
       </c>
@@ -8447,7 +9170,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1745</v>
       </c>
@@ -8465,7 +9188,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1214</v>
       </c>
@@ -8483,7 +9206,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1289</v>
       </c>
@@ -8501,7 +9224,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1538</v>
       </c>
@@ -8519,7 +9242,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1098</v>
       </c>
@@ -8537,7 +9260,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1334</v>
       </c>
@@ -8555,7 +9278,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1698</v>
       </c>
@@ -8573,7 +9296,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1227</v>
       </c>
@@ -8591,7 +9314,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1384</v>
       </c>
@@ -8609,7 +9332,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1546</v>
       </c>
@@ -8626,10 +9349,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1223</v>
       </c>
@@ -8646,10 +9369,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1517</v>
       </c>
@@ -8667,7 +9390,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1768</v>
       </c>
@@ -8685,7 +9408,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1068</v>
       </c>
@@ -8703,7 +9426,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1264</v>
       </c>
@@ -8721,7 +9444,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1683</v>
       </c>
@@ -8739,12 +9462,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -8757,12 +9480,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -8775,12 +9498,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -8792,15 +9515,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -8813,12 +9536,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -8831,12 +9554,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -8849,11 +9572,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8873,41 +9596,41 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45152</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1258</v>
       </c>
@@ -8925,7 +9648,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1347</v>
       </c>
@@ -8943,7 +9666,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1543</v>
       </c>
@@ -8961,7 +9684,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1019</v>
       </c>
@@ -8979,7 +9702,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1322</v>
       </c>
@@ -8997,7 +9720,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1598</v>
       </c>
@@ -9015,7 +9738,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1123</v>
       </c>
@@ -9033,7 +9756,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1277</v>
       </c>
@@ -9051,7 +9774,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1684</v>
       </c>
@@ -9069,7 +9792,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1245</v>
       </c>
@@ -9087,7 +9810,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1436</v>
       </c>
@@ -9105,7 +9828,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1590</v>
       </c>
@@ -9123,7 +9846,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1226</v>
       </c>
@@ -9141,7 +9864,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1476</v>
       </c>
@@ -9159,7 +9882,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1745</v>
       </c>
@@ -9177,7 +9900,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1099</v>
       </c>
@@ -9195,7 +9918,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1361</v>
       </c>
@@ -9213,7 +9936,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1695</v>
       </c>
@@ -9231,7 +9954,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1168</v>
       </c>
@@ -9249,7 +9972,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1359</v>
       </c>
@@ -9267,7 +9990,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1524</v>
       </c>
@@ -9285,7 +10008,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1241</v>
       </c>
@@ -9303,7 +10026,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1499</v>
       </c>
@@ -9321,7 +10044,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1627</v>
       </c>
@@ -9339,7 +10062,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1224</v>
       </c>
@@ -9357,7 +10080,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1452</v>
       </c>
@@ -9375,7 +10098,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1580</v>
       </c>
@@ -9393,7 +10116,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1020</v>
       </c>
@@ -9411,7 +10134,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1300</v>
       </c>
@@ -9429,7 +10152,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1657</v>
       </c>
@@ -9447,12 +10170,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -9465,12 +10188,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -9483,12 +10206,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -9500,15 +10223,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -9521,12 +10244,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -9539,12 +10262,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -9557,11 +10280,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9580,41 +10303,41 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1251</v>
       </c>
@@ -9632,7 +10355,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1519</v>
       </c>
@@ -9650,7 +10373,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1525</v>
       </c>
@@ -9668,7 +10391,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1195</v>
       </c>
@@ -9685,10 +10408,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1492</v>
       </c>
@@ -9706,7 +10429,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1681</v>
       </c>
@@ -9724,7 +10447,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1029</v>
       </c>
@@ -9742,7 +10465,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1408</v>
       </c>
@@ -9760,7 +10483,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1589</v>
       </c>
@@ -9778,7 +10501,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1211</v>
       </c>
@@ -9796,7 +10519,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1325</v>
       </c>
@@ -9814,7 +10537,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1660</v>
       </c>
@@ -9832,7 +10555,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1259</v>
       </c>
@@ -9850,7 +10573,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1343</v>
       </c>
@@ -9868,7 +10591,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1766</v>
       </c>
@@ -9886,7 +10609,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1053</v>
       </c>
@@ -9904,7 +10627,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1306</v>
       </c>
@@ -9922,7 +10645,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1620</v>
       </c>
@@ -9940,7 +10663,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1102</v>
       </c>
@@ -9958,7 +10681,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1327</v>
       </c>
@@ -9976,7 +10699,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1639</v>
       </c>
@@ -9994,7 +10717,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1207</v>
       </c>
@@ -10012,7 +10735,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1435</v>
       </c>
@@ -10030,7 +10753,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1569</v>
       </c>
@@ -10048,7 +10771,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1008</v>
       </c>
@@ -10066,7 +10789,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1460</v>
       </c>
@@ -10084,7 +10807,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1728</v>
       </c>
@@ -10102,7 +10825,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1079</v>
       </c>
@@ -10120,7 +10843,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1511</v>
       </c>
@@ -10138,7 +10861,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1780</v>
       </c>
@@ -10156,12 +10879,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -10174,12 +10897,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -10192,12 +10915,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -10209,15 +10932,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -10230,12 +10953,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -10248,12 +10971,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -10266,11 +10989,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10290,41 +11013,41 @@
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1204</v>
       </c>
@@ -10342,7 +11065,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1279</v>
       </c>
@@ -10360,7 +11083,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1615</v>
       </c>
@@ -10378,7 +11101,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1195</v>
       </c>
@@ -10396,7 +11119,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1492</v>
       </c>
@@ -10414,7 +11137,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1681</v>
       </c>
@@ -10432,7 +11155,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1187</v>
       </c>
@@ -10450,7 +11173,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1341</v>
       </c>
@@ -10468,7 +11191,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1644</v>
       </c>
@@ -10485,10 +11208,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1041</v>
       </c>
@@ -10506,7 +11229,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1390</v>
       </c>
@@ -10524,7 +11247,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1573</v>
       </c>
@@ -10542,7 +11265,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1125</v>
       </c>
@@ -10560,7 +11283,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1420</v>
       </c>
@@ -10578,7 +11301,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1535</v>
       </c>
@@ -10596,7 +11319,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1118</v>
       </c>
@@ -10614,7 +11337,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1357</v>
       </c>
@@ -10632,7 +11355,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1702</v>
       </c>
@@ -10650,7 +11373,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1033</v>
       </c>
@@ -10668,7 +11391,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1286</v>
       </c>
@@ -10686,7 +11409,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1547</v>
       </c>
@@ -10704,7 +11427,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1141</v>
       </c>
@@ -10722,7 +11445,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1331</v>
       </c>
@@ -10740,7 +11463,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1729</v>
       </c>
@@ -10758,7 +11481,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1068</v>
       </c>
@@ -10776,7 +11499,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1264</v>
       </c>
@@ -10794,7 +11517,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1683</v>
       </c>
@@ -10812,7 +11535,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1077</v>
       </c>
@@ -10830,7 +11553,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1353</v>
       </c>
@@ -10848,7 +11571,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1749</v>
       </c>
@@ -10866,12 +11589,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -10884,12 +11607,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -10902,12 +11625,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -10919,15 +11642,15 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -10940,12 +11663,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -10958,12 +11681,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -10976,11 +11699,11 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11000,41 +11723,41 @@
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>45162</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1100</v>
       </c>
@@ -11052,7 +11775,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1432</v>
       </c>
@@ -11070,7 +11793,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1541</v>
       </c>
@@ -11088,7 +11811,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1195</v>
       </c>
@@ -11108,7 +11831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1492</v>
       </c>
@@ -11126,7 +11849,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1681</v>
       </c>
@@ -11144,7 +11867,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1187</v>
       </c>
@@ -11162,7 +11885,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1341</v>
       </c>
@@ -11180,7 +11903,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1644</v>
       </c>
@@ -11197,10 +11920,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1083</v>
       </c>
@@ -11218,7 +11941,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1294</v>
       </c>
@@ -11236,7 +11959,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1650</v>
       </c>
@@ -11254,7 +11977,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1036</v>
       </c>
@@ -11272,7 +11995,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1471</v>
       </c>
@@ -11290,7 +12013,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1552</v>
       </c>
@@ -11308,7 +12031,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1210</v>
       </c>
@@ -11326,7 +12049,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1415</v>
       </c>
@@ -11344,7 +12067,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1677</v>
       </c>
@@ -11362,7 +12085,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1090</v>
       </c>
@@ -11382,7 +12105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1501</v>
       </c>
@@ -11400,7 +12123,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1539</v>
       </c>
@@ -11418,7 +12141,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1030</v>
       </c>
@@ -11436,7 +12159,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1458</v>
       </c>
@@ -11454,7 +12177,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1659</v>
       </c>
@@ -11472,7 +12195,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1079</v>
       </c>
@@ -11490,7 +12213,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1511</v>
       </c>
@@ -11508,7 +12231,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1780</v>
       </c>
@@ -11526,7 +12249,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1071</v>
       </c>
@@ -11544,7 +12267,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1299</v>
       </c>
@@ -11564,7 +12287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1737</v>
       </c>
@@ -11584,12 +12307,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1078</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -11602,12 +12325,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1382</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -11620,12 +12343,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1676</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -11637,15 +12360,15 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1132</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -11658,12 +12381,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -11676,12 +12399,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -11696,11 +12419,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="F38"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+  <sortState ref="A2:G38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11718,16 +12441,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094AA1C2EC61FF14F854275BACE97F8DB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ed8f1bbf957748ffc396fce8d8e9def">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xmlns:ns4="5c7bd4c1-27c7-4857-97c5-5e05b5492f18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ada7cf4f373b2b21e20b3c9d8b6ea551" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11985,14 +12698,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="a7d62638-28e2-4f67-9303-2f0acda7ac7b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7C944F-C3D4-460D-AE36-4D3A5F868739}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7C944F-C3D4-460D-AE36-4D3A5F868739}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="a7d62638-28e2-4f67-9303-2f0acda7ac7b"/>
+    <ds:schemaRef ds:uri="5c7bd4c1-27c7-4857-97c5-5e05b5492f18"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{432F2062-72EA-4E1E-99E3-A44A38B68525}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{496C6FD6-E5A0-4368-8492-A4784BEDD3E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5c7bd4c1-27c7-4857-97c5-5e05b5492f18"/>
+    <ds:schemaRef ds:uri="a7d62638-28e2-4f67-9303-2f0acda7ac7b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>